--- a/data_year/zb/金融业/保险公司资产情况.xlsx
+++ b/data_year/zb/金融业/保险公司资产情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,468 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>47860.491046</v>
+      </c>
       <c r="C2" t="n">
-        <v>6320</v>
+        <v>50481.608647</v>
       </c>
       <c r="D2" t="n">
-        <v>211</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>1151.787363</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2621.117602</v>
+      </c>
       <c r="F2" t="n">
-        <v>5161</v>
+        <v>42642.661491</v>
       </c>
       <c r="G2" t="n">
-        <v>948</v>
+        <v>5833.515936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56822.12</v>
+      </c>
       <c r="C3" t="n">
-        <v>9088</v>
+        <v>59828.94</v>
       </c>
       <c r="D3" t="n">
-        <v>255</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>1579.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3006.83</v>
+      </c>
       <c r="F3" t="n">
-        <v>7657</v>
+        <v>49798.19</v>
       </c>
       <c r="G3" t="n">
-        <v>1176</v>
+        <v>7919.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11540.63</v>
+        <v>70080.33</v>
       </c>
       <c r="C4" t="n">
-        <v>11953.68</v>
+        <v>73545.73</v>
       </c>
       <c r="D4" t="n">
-        <v>262.37</v>
+        <v>1845.25</v>
       </c>
       <c r="E4" t="n">
-        <v>413.05</v>
+        <v>3465.4</v>
       </c>
       <c r="F4" t="n">
-        <v>8352.9</v>
+        <v>60991.22</v>
       </c>
       <c r="G4" t="n">
-        <v>1411.38</v>
+        <v>9477.469999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14630.97</v>
+        <v>78551.67</v>
       </c>
       <c r="C5" t="n">
-        <v>15286.44</v>
+        <v>82886.95</v>
       </c>
       <c r="D5" t="n">
-        <v>292.7</v>
+        <v>2103.93</v>
       </c>
       <c r="E5" t="n">
-        <v>665.64</v>
+        <v>4335.28</v>
       </c>
       <c r="F5" t="n">
-        <v>13458.27</v>
+        <v>68250.07000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>1718.81</v>
+        <v>10941.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18862.6</v>
+        <v>94950.98</v>
       </c>
       <c r="C6" t="n">
-        <v>19704.19</v>
+        <v>101591.47</v>
       </c>
       <c r="D6" t="n">
-        <v>311.31</v>
+        <v>3513.56</v>
       </c>
       <c r="E6" t="n">
-        <v>862.66</v>
+        <v>6640.49</v>
       </c>
       <c r="F6" t="n">
-        <v>17446.26</v>
+        <v>82487.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2340.45</v>
+        <v>14061.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27656.26</v>
+        <v>115057.96</v>
       </c>
       <c r="C7" t="n">
-        <v>28912.78</v>
+        <v>123597.76</v>
       </c>
       <c r="D7" t="n">
-        <v>877.26</v>
+        <v>5187.38</v>
       </c>
       <c r="E7" t="n">
-        <v>1256.51</v>
+        <v>6539.8</v>
       </c>
       <c r="F7" t="n">
-        <v>23249.16</v>
+        <v>99324.83</v>
       </c>
       <c r="G7" t="n">
-        <v>3880.51</v>
+        <v>18481.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31893.93</v>
+        <v>144646.59</v>
       </c>
       <c r="C8" t="n">
-        <v>33418.83</v>
+        <v>153764.66</v>
       </c>
       <c r="D8" t="n">
-        <v>994.45</v>
+        <v>2765.61</v>
       </c>
       <c r="E8" t="n">
-        <v>1524.91</v>
+        <v>9118.07</v>
       </c>
       <c r="F8" t="n">
-        <v>27138.45</v>
+        <v>126557.51</v>
       </c>
       <c r="G8" t="n">
-        <v>4687.03</v>
+        <v>23849.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38582.37</v>
+        <v>158956.86</v>
       </c>
       <c r="C9" t="n">
-        <v>40634.75</v>
+        <v>169377.32</v>
       </c>
       <c r="D9" t="n">
-        <v>1162.01</v>
+        <v>3150.32</v>
       </c>
       <c r="E9" t="n">
-        <v>2052.39</v>
+        <v>10420.46</v>
       </c>
       <c r="F9" t="n">
-        <v>33655.05</v>
+        <v>131885.05</v>
       </c>
       <c r="G9" t="n">
-        <v>4892.62</v>
+        <v>24901.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47860.491046</v>
+        <v>171695.832722943</v>
       </c>
       <c r="C10" t="n">
-        <v>50481.608647</v>
+        <v>183305.240269848</v>
       </c>
       <c r="D10" t="n">
-        <v>1151.787363</v>
+        <v>3633.4758390271</v>
       </c>
       <c r="E10" t="n">
-        <v>2621.117602</v>
+        <v>11609.4075469043</v>
       </c>
       <c r="F10" t="n">
-        <v>42642.661491</v>
+        <v>146032.481977644</v>
       </c>
       <c r="G10" t="n">
-        <v>5833.515936</v>
+        <v>23502.7327395975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56822.12</v>
+        <v>192052.686535173</v>
       </c>
       <c r="C11" t="n">
-        <v>59828.94</v>
+        <v>205644.9</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.11</v>
+        <v>4261.123930525</v>
       </c>
       <c r="E11" t="n">
-        <v>3006.83</v>
+        <v>13592.213464827</v>
       </c>
       <c r="F11" t="n">
-        <v>49798.19</v>
+        <v>169575.167090804</v>
       </c>
       <c r="G11" t="n">
-        <v>7919.95</v>
+        <v>22939.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70080.33</v>
+        <v>216367.120434399</v>
       </c>
       <c r="C12" t="n">
-        <v>73545.73</v>
+        <v>232984.295282966</v>
       </c>
       <c r="D12" t="n">
-        <v>1845.25</v>
+        <v>4956.2902034423</v>
       </c>
       <c r="E12" t="n">
-        <v>3465.4</v>
+        <v>17076.7943818997</v>
       </c>
       <c r="F12" t="n">
-        <v>60991.22</v>
+        <v>199789.743409701</v>
       </c>
       <c r="G12" t="n">
-        <v>9477.469999999999</v>
+        <v>23422.592165288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78551.67</v>
+        <v>228766.77</v>
       </c>
       <c r="C13" t="n">
-        <v>82886.95</v>
+        <v>248874.05</v>
       </c>
       <c r="D13" t="n">
-        <v>2103.93</v>
+        <v>6057.45</v>
       </c>
       <c r="E13" t="n">
-        <v>4335.28</v>
+        <v>20107.28</v>
       </c>
       <c r="F13" t="n">
-        <v>68250.07000000001</v>
+        <v>213894.93</v>
       </c>
       <c r="G13" t="n">
-        <v>10941.45</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>94950.98</v>
-      </c>
-      <c r="C14" t="n">
-        <v>101591.47</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3513.56</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6640.49</v>
-      </c>
-      <c r="F14" t="n">
-        <v>82487.2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14061.48</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>115057.96</v>
-      </c>
-      <c r="C15" t="n">
-        <v>123597.76</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5187.38</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6539.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>99324.83</v>
-      </c>
-      <c r="G15" t="n">
-        <v>18481.13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>144646.59</v>
-      </c>
-      <c r="C16" t="n">
-        <v>153764.66</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2765.61</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9118.07</v>
-      </c>
-      <c r="F16" t="n">
-        <v>126557.51</v>
-      </c>
-      <c r="G16" t="n">
-        <v>23849.82</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>158956.86</v>
-      </c>
-      <c r="C17" t="n">
-        <v>169377.32</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3150.32</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10420.46</v>
-      </c>
-      <c r="F17" t="n">
-        <v>131885.05</v>
-      </c>
-      <c r="G17" t="n">
-        <v>24901.04</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>171695.832722943</v>
-      </c>
-      <c r="C18" t="n">
-        <v>183305.240269848</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3633.4758390271</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11609.4075469043</v>
-      </c>
-      <c r="F18" t="n">
-        <v>146032.481977644</v>
-      </c>
-      <c r="G18" t="n">
-        <v>23502.7327395975</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>192052.686535173</v>
-      </c>
-      <c r="C19" t="n">
-        <v>205644.9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4261.123930525</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13592.213464827</v>
-      </c>
-      <c r="F19" t="n">
-        <v>169575.167090804</v>
-      </c>
-      <c r="G19" t="n">
-        <v>22939.6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>216367.120434399</v>
-      </c>
-      <c r="C20" t="n">
-        <v>232984.295282966</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4956.2902034423</v>
-      </c>
-      <c r="E20" t="n">
-        <v>17076.7943818997</v>
-      </c>
-      <c r="F20" t="n">
-        <v>199789.743409701</v>
-      </c>
-      <c r="G20" t="n">
-        <v>23422.592165288</v>
+        <v>24512.74</v>
       </c>
     </row>
   </sheetData>
